--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Week 47" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Week 3" sheetId="11" r:id="rId9"/>
     <sheet name="Week 4" sheetId="12" r:id="rId10"/>
     <sheet name="Totaal" sheetId="2" r:id="rId11"/>
+    <sheet name="toets 1 GameScene" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="83">
   <si>
     <t>Logboek</t>
   </si>
@@ -231,18 +232,61 @@
   </si>
   <si>
     <t>Nieuwe classe gemaakt voor ScoresScene</t>
+  </si>
+  <si>
+    <t>Pyramid Panic</t>
+  </si>
+  <si>
+    <t>Arjan de Ruijter</t>
+  </si>
+  <si>
+    <t>Toets 1 GameScenes</t>
+  </si>
+  <si>
+    <t>Maak een mapje in de solutionexplorer genaamd QuitScene</t>
+  </si>
+  <si>
+    <t>Maak een class QuitScene in de QuitScene map</t>
+  </si>
+  <si>
+    <t>Pas de usings aan en maak de QuitScene class public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laat de class de interface implementeren IState </t>
+  </si>
+  <si>
+    <t>Kopieer de inhoud van de PlayScene class naar de QuitScene class en verander de naam van de constructor</t>
+  </si>
+  <si>
+    <t>Maak een commit met naam: Toets1 commit 1</t>
+  </si>
+  <si>
+    <t>Maak een field QuitScene van het type QuitScene en vergeet niet de namespace te controleren waar de QuitScene in staat. Kijk of dit ook de naam PyramidPanic draagt</t>
+  </si>
+  <si>
+    <t>Maak een property voor het QuitScene field (een getter)</t>
+  </si>
+  <si>
+    <t>Maak een nieuw object van de class QuitScene aan in de LoadContent() method van de PyramidPanic class</t>
+  </si>
+  <si>
+    <t>Zorg dat je zowel met het toetsenbord als met de muis via de knoppen naar  QuitScene kunt gaan</t>
+  </si>
+  <si>
+    <t>Maak een commit met naam: Toets1 commit 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +337,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +434,39 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,6 +1701,329 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="32">
+        <v>41624</v>
+      </c>
+      <c r="C7" s="33">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" ref="G7:G17" si="0">D7-C7</f>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="E10" s="31">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="D11" s="33">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="E11" s="31">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="E13" s="31">
+        <v>7</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="E14" s="31">
+        <v>8</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="33">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D15" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E15" s="31">
+        <v>9</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="33">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666519E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D16" s="33">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="E16" s="31">
+        <v>10</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="33">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222099E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0.60138888888888886</v>
+      </c>
+      <c r="E17" s="31">
+        <v>11</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="33">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="33">
+        <f>SUM(G7:G16)</f>
+        <v>1.5277777777777724E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
@@ -2931,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
